--- a/HaierMDM/2015年5月25日印度创建个人供应商功能优化，增加集团内外选项，选择集团内则手工维护供应商编码/工作文档.xlsx
+++ b/HaierMDM/2015年5月25日印度创建个人供应商功能优化，增加集团内外选项，选择集团内则手工维护供应商编码/工作文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>INDIA_VENDOR_TYPE</t>
   </si>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>集团内外选项 印度创建个人供应商功能优化，增加集团内外选项，选择集团内则手工维护供应商编码</t>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -454,6 +458,11 @@
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
